--- a/config/excel/Building.xlsx
+++ b/config/excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E2B243-35FE-461B-9CA7-A183BB04F690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738B1D8E-EF18-4BE7-854E-FB23D0770C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24945" yWindow="4455" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23730" yWindow="4095" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfBuilding" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>主基地</t>
   </si>
   <si>
@@ -181,6 +175,50 @@
   </si>
   <si>
     <t>消耗电量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动建造</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可采集附近的矿源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为基地提供电力支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可训练步兵单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可生产装甲单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动攻击范围内的敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +267,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,7 +338,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,8 +347,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,27 +626,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="2" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,153 +655,174 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5</v>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
         <v>1000</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
       <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>10</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
       <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>7</v>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -762,183 +839,216 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>8</v>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
         <v>400</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
       <c r="G6" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <v>5</v>
       </c>
       <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
         <v>800</v>
       </c>
-      <c r="J6" s="6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>9</v>
+      <c r="K6" s="6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
         <v>400</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
       <c r="G7" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6">
         <v>5</v>
       </c>
       <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6">
         <v>500</v>
       </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>500</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>10</v>
       </c>
+      <c r="I8" s="4">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="4">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>500</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="7">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
         <v>600</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
       <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>20</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>10</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>2000</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>20</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>20</v>
+      <c r="L9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>800</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>20</v>
       </c>
-      <c r="H10" s="6">
-        <v>5</v>
-      </c>
       <c r="I10" s="6">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6">
         <v>500</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>33</v>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/Building.xlsx
+++ b/config/excel/Building.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738B1D8E-EF18-4BE7-854E-FB23D0770C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF92346-4D18-4C71-906B-0C581AE20E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23730" yWindow="4095" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20895" yWindow="1665" windowWidth="28725" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfBuilding" sheetId="1" r:id="rId1"/>
+    <sheet name="ConfBuildingPlace" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -134,10 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>建筑类型：1=主基地；2=矿源；3=采矿场；4=电厂；5=兵营；6=坦克工厂；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>占地尺寸（直径）建议奇数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -219,6 +216,83 @@
   </si>
   <si>
     <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>5,0,5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营</t>
+  </si>
+  <si>
+    <t>5,0,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵营</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,0,5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克工厂</t>
+  </si>
+  <si>
+    <t>建筑类型：1=主基地；2=矿源；3=采矿场；4=电厂；5=兵营；6=坦克工厂；7=防御塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,0,15;15,0,13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>122,0,122</t>
+  </si>
+  <si>
+    <t>122,0,117</t>
+  </si>
+  <si>
+    <t>117,0,122</t>
+  </si>
+  <si>
+    <t>112,0,122</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,0,112;112,0,110</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否启用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -269,20 +343,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -325,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,17 +426,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>10</v>
@@ -667,7 +755,7 @@
         <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>25</v>
@@ -676,16 +764,16 @@
         <v>23</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -725,31 +813,31 @@
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>26</v>
@@ -758,16 +846,16 @@
         <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -807,6 +895,7 @@
       <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -845,6 +934,7 @@
       <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -883,8 +973,8 @@
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>42</v>
+      <c r="M6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -924,8 +1014,8 @@
       <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>43</v>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -939,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4">
         <v>5</v>
@@ -965,8 +1055,8 @@
       <c r="L8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>44</v>
+      <c r="M8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -1006,8 +1096,8 @@
       <c r="L9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>45</v>
+      <c r="M9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -1021,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
@@ -1045,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1056,4 +1146,327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EAF20F-3871-496D-B5D3-5055E4F35A32}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/excel/Building.xlsx
+++ b/config/excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF92346-4D18-4C71-906B-0C581AE20E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3096827-1F03-4773-AFDC-1E22218B5B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20895" yWindow="1665" windowWidth="28725" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19785" yWindow="-1995" windowWidth="28725" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfBuilding" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -777,8 +777,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,8 +1190,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -1369,7 +1369,7 @@
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="F10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       <c r="F11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       <c r="F12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/excel/Building.xlsx
+++ b/config/excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3096827-1F03-4773-AFDC-1E22218B5B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1706377-43D9-4114-B992-FC3B06D834C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19785" yWindow="-1995" windowWidth="28725" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20205" yWindow="2310" windowWidth="28725" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfBuilding" sheetId="1" r:id="rId1"/>
@@ -240,10 +240,6 @@
     <t>阵营</t>
   </si>
   <si>
-    <t>5,0,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>10,0,5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -294,6 +290,10 @@
   <si>
     <t>是否启用</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0,10;5,0,15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>38</v>
@@ -911,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>1000</v>
       </c>
       <c r="K8" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>9</v>
@@ -1091,7 +1091,7 @@
         <v>2000</v>
       </c>
       <c r="K9" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>18</v>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>46</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>49</v>
@@ -1232,7 +1232,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1269,10 +1269,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
@@ -1295,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1318,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>30</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
@@ -1410,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>30</v>

--- a/config/excel/Building.xlsx
+++ b/config/excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1706377-43D9-4114-B992-FC3B06D834C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B6D5C-A8C1-43E6-B041-E72A9783749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20205" yWindow="2310" windowWidth="28725" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfBuilding" sheetId="1" r:id="rId1"/>
@@ -255,10 +255,6 @@
     <t>坦克工厂</t>
   </si>
   <si>
-    <t>建筑类型：1=主基地；2=矿源；3=采矿场；4=电厂；5=兵营；6=坦克工厂；7=防御塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>13,0,15;15,0,13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -294,6 +290,17 @@
   <si>
     <t>5,0,10;5,0,15</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑类型：
+1=主基地；
+2=矿源；
+3=采矿场；
+4=电厂；
+5=兵营；
+6=坦克工厂；
+7=防御塔；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -716,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,12 +824,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>38</v>
@@ -1152,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EAF20F-3871-496D-B5D3-5055E4F35A32}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1171,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1186,7 +1193,7 @@
         <v>46</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1212,7 +1219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>49</v>
@@ -1232,7 +1239,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1272,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
@@ -1341,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>30</v>
@@ -1364,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
@@ -1387,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
@@ -1410,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>55</v>
@@ -1433,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>57</v>
@@ -1456,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>30</v>

--- a/config/excel/Building.xlsx
+++ b/config/excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyZiegler\github\ra2\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B6D5C-A8C1-43E6-B041-E72A9783749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7415289-6D48-4FEC-94FA-1392872926D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28725" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28725" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfBuilding" sheetId="1" r:id="rId1"/>
@@ -255,10 +255,6 @@
     <t>坦克工厂</t>
   </si>
   <si>
-    <t>13,0,15;15,0,13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>122,0,122</t>
   </si>
   <si>
@@ -269,10 +265,6 @@
   </si>
   <si>
     <t>112,0,122</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,0,112;112,0,110</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -301,6 +293,14 @@
 6=坦克工厂；
 7=防御塔；</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,0,15;15,0,12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>109,0,112;112,0,109</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>38</v>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EAF20F-3871-496D-B5D3-5055E4F35A32}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>46</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>49</v>
@@ -1239,7 +1239,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
@@ -1348,13 +1348,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>8</v>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>55</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>57</v>
@@ -1463,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>30</v>
